--- a/spec/fixtures/simple_values.xlsx
+++ b/spec/fixtures/simple_values.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Workspace/ruby-sheet/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F81CA-2A35-644A-B2EE-318285EBC73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE9D1EA-16DD-0744-A0DD-D34761444A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{94BA95AE-DB14-DA4A-AB72-BB7C5880B0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,13 +466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C17891-7691-5144-B2F6-6D3583E8DADD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -531,6 +535,27 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5566778899</v>
+      </c>
+      <c r="B5">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="C5">
+        <f>A5-B5</f>
+        <v>5566778895.8584099</v>
+      </c>
+      <c r="D5">
+        <v>-33.4</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spec/fixtures/simple_values.xlsx
+++ b/spec/fixtures/simple_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Workspace/ruby-sheet/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE9D1EA-16DD-0744-A0DD-D34761444A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62810CF9-EBC7-4140-B631-C25FB581FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{94BA95AE-DB14-DA4A-AB72-BB7C5880B0F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>a</t>
   </si>
@@ -60,13 +60,47 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Formatting</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,8 +116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -91,18 +133,28 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -126,18 +178,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFF4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -466,16 +533,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C17891-7691-5144-B2F6-6D3583E8DADD}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -485,7 +552,7 @@
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>3</v>
       </c>
       <c r="D1">
@@ -499,7 +566,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -512,25 +579,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -542,7 +609,7 @@
       <c r="B5">
         <v>3.1415899999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <f>A5-B5</f>
         <v>5566778895.8584099</v>
       </c>
@@ -554,6 +621,11 @@
       </c>
       <c r="F5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
